--- a/xlsx/新闻周刊_intext.xlsx
+++ b/xlsx/新闻周刊_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>新闻周刊</t>
   </si>
@@ -29,7 +29,7 @@
     <t>新闻周刊 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_新闻周刊</t>
+    <t>政策_政策_美国_新闻周刊</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jon_Meacham</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%87%8C%E5%BE%B7%C2%B7%E6%89%8E%E5%8D%A1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>法里德·扎卡利亞</t>
+    <t>法里德·扎卡利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>新聞雜誌</t>
+    <t>新闻杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -77,9 +77,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -89,7 +86,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>時代 (雜誌)</t>
+    <t>时代 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%91%8A</t>
@@ -119,7 +116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>華盛頓郵報公司</t>
+    <t>华盛顿邮报公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC</t>
   </si>
   <si>
-    <t>墨爾本</t>
+    <t>墨尔本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%A1%B6</t>
   </si>
   <si>
-    <t>馬桶</t>
+    <t>马桶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_New_York_Times</t>
@@ -299,19 +296,19 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%99%BD%E5%AE%AE%E7%B0%A1%E5%A0%B1%E5%AE%A4%E5%BA%A7%E6%AC%A1%E8%A1%A8</t>
   </si>
   <si>
-    <t>Template talk-白宮簡報室座次表</t>
+    <t>Template talk-白宫简报室座次表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Radio_News</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yahoo!_News</t>
@@ -395,13 +392,13 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E8%81%9E%E7%A4%BE</t>
   </si>
   <si>
-    <t>彭博新聞社</t>
+    <t>彭博新闻社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_McClatchy_Company</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%92%B0%E7%90%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>波士頓環球報</t>
+    <t>波士顿环球报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roll_Call</t>
@@ -467,13 +464,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>ABC新聞</t>
+    <t>ABC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -503,19 +500,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>英國廣播公司新聞</t>
+    <t>英国广播公司新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/One_America_News_Network</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>芝加哥論壇報</t>
+    <t>芝加哥论坛报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%8B%E9%9F%B3</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BuzzFeed</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%87%8E%E7%8D%B8</t>
   </si>
   <si>
-    <t>每日野獸</t>
+    <t>每日野兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>今日美國</t>
+    <t>今日美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC_News_Radio</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Westwood_One_(current)</t>
@@ -623,19 +620,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A8%98%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>白宮記者協會</t>
+    <t>白宫记者协会</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1264,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
@@ -1293,10 +1290,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1322,10 +1319,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1351,10 +1348,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1380,10 +1377,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1409,10 +1406,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1438,10 +1435,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1467,10 +1464,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1496,10 +1493,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>19</v>
@@ -1525,10 +1522,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1554,10 +1551,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1583,10 +1580,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1612,10 +1609,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1641,10 +1638,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1670,10 +1667,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1699,10 +1696,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1728,10 +1725,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1757,10 +1754,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1786,10 +1783,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1815,10 +1812,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1844,10 +1841,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1873,10 +1870,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1902,10 +1899,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1931,10 +1928,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1960,10 +1957,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1989,10 +1986,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2018,10 +2015,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2047,10 +2044,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2076,10 +2073,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2105,10 +2102,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2134,10 +2131,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2163,10 +2160,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2192,10 +2189,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2221,10 +2218,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2250,10 +2247,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2279,10 +2276,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2308,10 +2305,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2337,10 +2334,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2366,10 +2363,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2395,10 +2392,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2424,10 +2421,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2453,10 +2450,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2482,10 +2479,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2511,10 +2508,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2540,10 +2537,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2569,10 +2566,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2598,10 +2595,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2627,10 +2624,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2656,10 +2653,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2685,10 +2682,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2714,10 +2711,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2743,10 +2740,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2772,10 +2769,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2801,10 +2798,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2830,10 +2827,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2859,10 +2856,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2888,10 +2885,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2917,10 +2914,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2946,10 +2943,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2975,10 +2972,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3004,10 +3001,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3033,10 +3030,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3062,10 +3059,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>116</v>
+      </c>
+      <c r="F72" t="s">
         <v>117</v>
-      </c>
-      <c r="F72" t="s">
-        <v>118</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3091,10 +3088,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3120,10 +3117,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3149,10 +3146,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3178,10 +3175,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3207,10 +3204,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3236,10 +3233,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3265,10 +3262,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3294,10 +3291,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3323,10 +3320,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3352,10 +3349,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3381,10 +3378,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3410,10 +3407,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3439,10 +3436,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3468,10 +3465,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3497,10 +3494,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3526,10 +3523,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3555,10 +3552,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3584,10 +3581,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3613,10 +3610,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3642,10 +3639,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3671,10 +3668,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3700,10 +3697,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3729,10 +3726,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3758,10 +3755,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3787,10 +3784,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3816,10 +3813,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3845,10 +3842,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3874,10 +3871,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3903,10 +3900,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3932,10 +3929,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3961,10 +3958,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3990,10 +3987,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4019,10 +4016,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
